--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,13 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_39data1" localSheetId="2">Sheet3!$A$1:$J$39</definedName>
+    <definedName name="data" localSheetId="8">Sheet9!$A$1:$M$64</definedName>
     <definedName name="data_1" localSheetId="0">Sheet1!$A$1:$H$32</definedName>
     <definedName name="test" localSheetId="1">Sheet2!$A$1:$L$6</definedName>
   </definedNames>
@@ -57,7 +61,26 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="test" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" name="data1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="F:\documents\thesis\finite element\data.txt" space="1" consecutive="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="test" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\documents\thesis\finite element\test.txt" space="1" consecutive="1">
       <textFields count="13">
         <textField/>
@@ -77,10 +100,6 @@
     </textPr>
   </connection>
 </connections>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -304,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71347200"/>
-        <c:axId val="71165440"/>
+        <c:axId val="164375168"/>
+        <c:axId val="171782528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71347200"/>
+        <c:axId val="164375168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,12 +336,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71165440"/>
+        <c:crossAx val="171782528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71165440"/>
+        <c:axId val="171782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,7 +352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71347200"/>
+        <c:crossAx val="164375168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -383,126 +402,126 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$E$1:$E$39</c:f>
+              <c:f>Sheet6!$A$1:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>45.7</c:v>
+                  <c:v>20.41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.62</c:v>
+                  <c:v>18.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>21.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>19.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.5</c:v>
+                  <c:v>18.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.81</c:v>
+                  <c:v>21.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>420</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>301</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200.5</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.19</c:v>
+                  <c:v>19.63</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.8</c:v>
+                  <c:v>21.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>366</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>305</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.67</c:v>
+                  <c:v>20.41</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.67</c:v>
+                  <c:v>18.84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>407</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>359</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>320</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>289</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>110</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>135</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>90.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>92</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>511</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>470</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>443</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>299</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>480</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>393</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>330</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123540608"/>
-        <c:axId val="123538816"/>
+        <c:axId val="46218240"/>
+        <c:axId val="46216704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123540608"/>
+        <c:axId val="46218240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +549,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123538816"/>
+        <c:crossAx val="46216704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123538816"/>
+        <c:axId val="46216704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +565,1081 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123540608"/>
+        <c:crossAx val="46218240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$1:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>33.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="171901696"/>
+        <c:axId val="170466304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="171901696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170466304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="170466304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171901696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$C$1:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49931008"/>
+        <c:axId val="49908736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49931008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49908736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49908736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49931008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$D$1:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52087424"/>
+        <c:axId val="52085888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52087424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52085888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52085888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52087424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84702777777777782"/>
+          <c:y val="0.24054862933799936"/>
+          <c:w val="0.15297222222222223"/>
+          <c:h val="8.3717191601049873E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$E$1:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173692416"/>
+        <c:axId val="173690880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173692416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173690880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173690880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173692416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$F$1:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167011840"/>
+        <c:axId val="167010304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167011840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167010304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="167010304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="167011840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -572,16 +1665,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -602,20 +1695,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -630,6 +1723,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -638,11 +1881,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="39data1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -934,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1798,7 +3045,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1979,7 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:Q39"/>
     </sheetView>
   </sheetViews>
@@ -2906,7 +4153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3835,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4746,4 +5993,3628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>35</v>
+      </c>
+      <c r="C1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>24.5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>37.5</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>31.5</v>
+      </c>
+      <c r="B16">
+        <v>29.7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16.8</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>30.34</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>49</v>
+      </c>
+      <c r="C1">
+        <v>80</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <v>15</v>
+      </c>
+      <c r="G1">
+        <v>0.02</v>
+      </c>
+      <c r="H1">
+        <v>18.5</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>79</v>
+      </c>
+      <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>0.1</v>
+      </c>
+      <c r="N1">
+        <f t="shared" ref="N1:N8" si="0">IF(M1&lt;=0.1,1,IF(M1&lt;=0.2,2,IF(M1&lt;=0.5,3,IF(M1&lt;=0.8,4,IF(M1&lt;=1,5)))))</f>
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <f>10*M1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>79</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>0.2</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O64" si="1">10*M2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H3">
+        <v>17.3</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>81</v>
+      </c>
+      <c r="K3">
+        <v>78</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H4">
+        <v>17.7</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>78</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0.5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>82</v>
+      </c>
+      <c r="K5">
+        <v>78</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>47.5</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H6">
+        <v>31.3</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>77.5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H7">
+        <v>31.3</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>77</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0.2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>76</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0.1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>18.8</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+      <c r="N9">
+        <f>IF(M9&lt;=0.1,1,IF(M9&lt;=0.2,2,IF(M9&lt;=0.5,3,IF(M9&lt;=0.8,4,IF(M9&lt;=1,5)))))</f>
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0.2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N64" si="2">IF(M10&lt;=0.1,1,IF(M10&lt;=0.2,2,IF(M10&lt;=0.5,3,IF(M10&lt;=0.8,4,IF(M10&lt;=1,5)))))</f>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>37.5</v>
+      </c>
+      <c r="G11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>0.2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0.8</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>22.4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>75</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>44.5</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>74.5</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>24.5</v>
+      </c>
+      <c r="G15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H15">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>89</v>
+      </c>
+      <c r="K15">
+        <v>74</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0.2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>1E-3</v>
+      </c>
+      <c r="H16">
+        <v>18.8</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>65</v>
+      </c>
+      <c r="K16">
+        <v>74</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>29.5</v>
+      </c>
+      <c r="G17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>90</v>
+      </c>
+      <c r="K17">
+        <v>73</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>42.6</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H18">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>72.5</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>42.5</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>0.03</v>
+      </c>
+      <c r="H19">
+        <v>18.8</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>72.5</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>0.2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>72</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0.1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <v>19.2</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>72</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>17.5</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>86</v>
+      </c>
+      <c r="K22">
+        <v>72</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0.8</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H23">
+        <v>27.3</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>70</v>
+      </c>
+      <c r="K23">
+        <v>71</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0.2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H24">
+        <v>27.3</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <v>71</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>0.2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>29.7</v>
+      </c>
+      <c r="G25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H25">
+        <v>27.3</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>71</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+      <c r="G26">
+        <v>0.01</v>
+      </c>
+      <c r="H26">
+        <v>27.3</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>70</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>0.2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H27">
+        <v>18.5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>70</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>70</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>0.09</v>
+      </c>
+      <c r="H29">
+        <v>21.8</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>31</v>
+      </c>
+      <c r="K29">
+        <v>69</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0.2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>67.8</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>0.2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>0.03</v>
+      </c>
+      <c r="H31">
+        <v>18.5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>67</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>0.5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H32">
+        <v>21.6</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>88</v>
+      </c>
+      <c r="K32">
+        <v>67</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>0.2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H33">
+        <v>19.2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>67</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>0.8</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H34">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>67</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>0.2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>18.2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>14.1</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>66</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>0.03</v>
+      </c>
+      <c r="H36">
+        <v>19.7</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>43</v>
+      </c>
+      <c r="K36">
+        <v>66</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>0.8</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>27</v>
+      </c>
+      <c r="G37">
+        <v>0.01</v>
+      </c>
+      <c r="H37">
+        <v>19.7</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>66</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>0.2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>0.02</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>72</v>
+      </c>
+      <c r="K38">
+        <v>66</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>0.2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>0.01</v>
+      </c>
+      <c r="H39">
+        <v>17.7</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>56</v>
+      </c>
+      <c r="K39">
+        <v>65</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>0.5</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>80</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>27.6</v>
+      </c>
+      <c r="G40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H40">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>65</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0.5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>45</v>
+      </c>
+      <c r="G41">
+        <v>0.12</v>
+      </c>
+      <c r="H41">
+        <v>25</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <v>65</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>0.2</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>80</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H42">
+        <v>28.4</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>65</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0.8</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>0.02</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>88</v>
+      </c>
+      <c r="K43">
+        <v>62</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>0.2</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>37.5</v>
+      </c>
+      <c r="G44">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H44">
+        <v>22.8</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>62</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>0.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H45">
+        <v>21.5</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>62</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>0.5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>0.04</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>16</v>
+      </c>
+      <c r="K46">
+        <v>61</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0.2</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H47">
+        <v>21.5</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>61</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>0.1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>37.5</v>
+      </c>
+      <c r="G48">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H48">
+        <v>22.8</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>37</v>
+      </c>
+      <c r="K48">
+        <v>60</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0.2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H49">
+        <v>11.9</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>44</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>0.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H50">
+        <v>16.5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>60</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>0.1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>23.5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>18.7</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>30</v>
+      </c>
+      <c r="K51">
+        <v>60</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>0.2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>59</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>0.8</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>32.5</v>
+      </c>
+      <c r="G53">
+        <v>1E-3</v>
+      </c>
+      <c r="H53">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>59</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>0.2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>89</v>
+      </c>
+      <c r="K54">
+        <v>58</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>0.5</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>80</v>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H55">
+        <v>21.8</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>60</v>
+      </c>
+      <c r="K55">
+        <v>58</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>0.5</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>16.3</v>
+      </c>
+      <c r="G56">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>58</v>
+      </c>
+      <c r="K56">
+        <v>57</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0.1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>80</v>
+      </c>
+      <c r="D57">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H57">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>57</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>0.2</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>0.02</v>
+      </c>
+      <c r="H58">
+        <v>18.5</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <v>69</v>
+      </c>
+      <c r="K58">
+        <v>56</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0.5</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>80</v>
+      </c>
+      <c r="E59">
+        <v>80</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H59">
+        <v>18.8</v>
+      </c>
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>55</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>0.5</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>37.5</v>
+      </c>
+      <c r="G60">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H60">
+        <v>22.8</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>86</v>
+      </c>
+      <c r="K60">
+        <v>52</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0.2</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>80</v>
+      </c>
+      <c r="F61">
+        <v>37</v>
+      </c>
+      <c r="G61">
+        <v>0.01</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <v>16</v>
+      </c>
+      <c r="K61">
+        <v>50</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0.1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>50</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>23</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>43</v>
+      </c>
+      <c r="K62">
+        <v>50</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>0.2</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>80</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <v>24.5</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>49</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>0.2</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64">
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H64">
+        <v>18.8</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>41</v>
+      </c>
+      <c r="K64">
+        <v>47</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>0.8</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,16 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_39data1" localSheetId="2">Sheet3!$A$1:$J$39</definedName>
     <definedName name="data" localSheetId="8">Sheet9!$A$1:$M$64</definedName>
     <definedName name="data_1" localSheetId="0">Sheet1!$A$1:$H$32</definedName>
+    <definedName name="tempdata" localSheetId="10">Sheet11!$A$1:$K$16</definedName>
+    <definedName name="tempdata_1" localSheetId="10">Sheet11!$L$1:$R$16</definedName>
     <definedName name="test" localSheetId="1">Sheet2!$A$1:$L$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -80,7 +85,39 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="test" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="4" name="tempdata" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="F:\documents\Python\Adaboost\tempdata.txt" space="1" consecutive="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="tempdata1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="F:\documents\Python\Adaboost\tempdata.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="test" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\documents\thesis\finite element\test.txt" space="1" consecutive="1">
       <textFields count="13">
         <textField/>
@@ -323,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164375168"/>
-        <c:axId val="171782528"/>
+        <c:axId val="173250816"/>
+        <c:axId val="180422144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164375168"/>
+        <c:axId val="173250816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,12 +373,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171782528"/>
+        <c:crossAx val="180422144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171782528"/>
+        <c:axId val="180422144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,14 +389,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164375168"/>
+        <c:crossAx val="173250816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -536,11 +572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46218240"/>
-        <c:axId val="46216704"/>
+        <c:axId val="180446336"/>
+        <c:axId val="180447872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46218240"/>
+        <c:axId val="180446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,12 +585,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46216704"/>
+        <c:crossAx val="180447872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46216704"/>
+        <c:axId val="180447872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,14 +601,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46218240"/>
+        <c:crossAx val="180446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -749,11 +784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171901696"/>
-        <c:axId val="170466304"/>
+        <c:axId val="180467968"/>
+        <c:axId val="181669888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171901696"/>
+        <c:axId val="180467968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,12 +797,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170466304"/>
+        <c:crossAx val="181669888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170466304"/>
+        <c:axId val="181669888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,14 +813,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171901696"/>
+        <c:crossAx val="180467968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -962,11 +996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49931008"/>
-        <c:axId val="49908736"/>
+        <c:axId val="181677440"/>
+        <c:axId val="181687424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49931008"/>
+        <c:axId val="181677440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,12 +1009,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49908736"/>
+        <c:crossAx val="181687424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49908736"/>
+        <c:axId val="181687424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,14 +1025,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49931008"/>
+        <c:crossAx val="181677440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1175,11 +1208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52087424"/>
-        <c:axId val="52085888"/>
+        <c:axId val="181712000"/>
+        <c:axId val="181713536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52087424"/>
+        <c:axId val="181712000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,12 +1221,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52085888"/>
+        <c:crossAx val="181713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52085888"/>
+        <c:axId val="181713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52087424"/>
+        <c:crossAx val="181712000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1397,11 +1430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173692416"/>
-        <c:axId val="173690880"/>
+        <c:axId val="181602176"/>
+        <c:axId val="181603712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173692416"/>
+        <c:axId val="181602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,12 +1443,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173690880"/>
+        <c:crossAx val="181603712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173690880"/>
+        <c:axId val="181603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,14 +1459,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173692416"/>
+        <c:crossAx val="181602176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1610,11 +1642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167011840"/>
-        <c:axId val="167010304"/>
+        <c:axId val="181648384"/>
+        <c:axId val="181650176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167011840"/>
+        <c:axId val="181648384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,12 +1655,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167010304"/>
+        <c:crossAx val="181650176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167010304"/>
+        <c:axId val="181650176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,14 +1671,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167011840"/>
+        <c:crossAx val="181648384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1881,7 +1912,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1890,6 +1921,14 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempdata_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempdata" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3037,6 +3076,3109 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>49</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>0.02</v>
+      </c>
+      <c r="G1">
+        <v>18.5</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>79</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>79</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G3">
+        <v>17.3</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>81</v>
+      </c>
+      <c r="J3">
+        <v>78</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G4">
+        <v>17.7</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>58</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>82</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>47.5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>31.3</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <v>77.5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G7">
+        <v>31.3</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>72</v>
+      </c>
+      <c r="J7">
+        <v>77</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>76</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>18.8</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>76</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>37.5</v>
+      </c>
+      <c r="F11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>75</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>75</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>22.4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>75</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>44.5</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>74.5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>24.5</v>
+      </c>
+      <c r="F15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>89</v>
+      </c>
+      <c r="J15">
+        <v>74</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>1E-3</v>
+      </c>
+      <c r="G16">
+        <v>18.8</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="J16">
+        <v>74</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>29.5</v>
+      </c>
+      <c r="F17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>90</v>
+      </c>
+      <c r="J17">
+        <v>73</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>42.6</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>27</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>72.5</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>42.5</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>0.03</v>
+      </c>
+      <c r="G19">
+        <v>18.8</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>72.5</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>72</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>19.2</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>52</v>
+      </c>
+      <c r="J21">
+        <v>72</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>17.5</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>86</v>
+      </c>
+      <c r="J22">
+        <v>72</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G23">
+        <v>27.3</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>70</v>
+      </c>
+      <c r="J23">
+        <v>71</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G24">
+        <v>27.3</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>70</v>
+      </c>
+      <c r="J24">
+        <v>71</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>29.7</v>
+      </c>
+      <c r="F25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G25">
+        <v>27.3</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>71</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
+        <v>27.3</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>70</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>18.5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>63</v>
+      </c>
+      <c r="J27">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G28">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>13</v>
+      </c>
+      <c r="J28">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>0.09</v>
+      </c>
+      <c r="G29">
+        <v>21.8</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>31</v>
+      </c>
+      <c r="J29">
+        <v>69</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>13</v>
+      </c>
+      <c r="J30">
+        <v>67.8</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>0.03</v>
+      </c>
+      <c r="G31">
+        <v>18.5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>65</v>
+      </c>
+      <c r="J31">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G32">
+        <v>21.6</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>88</v>
+      </c>
+      <c r="J32">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G33">
+        <v>19.2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G34">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>18.2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>14.1</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>49</v>
+      </c>
+      <c r="J35">
+        <v>66</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>0.03</v>
+      </c>
+      <c r="G36">
+        <v>19.7</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>80</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>27</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37">
+        <v>19.7</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>72</v>
+      </c>
+      <c r="J38">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>80</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>0.01</v>
+      </c>
+      <c r="G39">
+        <v>17.7</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>56</v>
+      </c>
+      <c r="J39">
+        <v>65</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>27.6</v>
+      </c>
+      <c r="F40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G40">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>69</v>
+      </c>
+      <c r="J40">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>0.12</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>65</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G42">
+        <v>28.4</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>65</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>80</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>0.02</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>88</v>
+      </c>
+      <c r="J43">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
+      <c r="E44">
+        <v>37.5</v>
+      </c>
+      <c r="F44">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G44">
+        <v>22.8</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G45">
+        <v>21.5</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>45</v>
+      </c>
+      <c r="J45">
+        <v>62</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>0.04</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>16</v>
+      </c>
+      <c r="J46">
+        <v>61</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G47">
+        <v>21.5</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <v>61</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>37.5</v>
+      </c>
+      <c r="F48">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G48">
+        <v>22.8</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <v>60</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G49">
+        <v>11.9</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49">
+        <v>60</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>30</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G50">
+        <v>16.5</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>70</v>
+      </c>
+      <c r="J50">
+        <v>60</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>23.5</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>18.7</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <v>60</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>80</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G52">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>59</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>80</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>32.5</v>
+      </c>
+      <c r="F53">
+        <v>1E-3</v>
+      </c>
+      <c r="G53">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>59</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G54">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>89</v>
+      </c>
+      <c r="J54">
+        <v>58</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>80</v>
+      </c>
+      <c r="E55">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G55">
+        <v>21.8</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>58</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>16.3</v>
+      </c>
+      <c r="F56">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G56">
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>58</v>
+      </c>
+      <c r="J56">
+        <v>57</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>80</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>26</v>
+      </c>
+      <c r="F57">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G57">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>30</v>
+      </c>
+      <c r="J57">
+        <v>57</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>0.02</v>
+      </c>
+      <c r="G58">
+        <v>18.5</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>69</v>
+      </c>
+      <c r="J58">
+        <v>56</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <v>80</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G59">
+        <v>18.8</v>
+      </c>
+      <c r="H59">
+        <v>7</v>
+      </c>
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>55</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>21</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>37.5</v>
+      </c>
+      <c r="F60">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G60">
+        <v>22.8</v>
+      </c>
+      <c r="H60">
+        <v>6</v>
+      </c>
+      <c r="I60">
+        <v>86</v>
+      </c>
+      <c r="J60">
+        <v>52</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>80</v>
+      </c>
+      <c r="E61">
+        <v>37</v>
+      </c>
+      <c r="F61">
+        <v>0.01</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>43</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>24.5</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>30</v>
+      </c>
+      <c r="J63">
+        <v>49</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>25</v>
+      </c>
+      <c r="F64">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G64">
+        <v>18.8</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>41</v>
+      </c>
+      <c r="J64">
+        <v>47</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>0.01</v>
+      </c>
+      <c r="G1">
+        <v>28.5</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>60</v>
+      </c>
+      <c r="J1">
+        <v>32</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>49.5</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G3">
+        <v>17.3</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>30.5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>17.7</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>51</v>
+      </c>
+      <c r="J4">
+        <v>30.5</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>48.5</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>0.158</v>
+      </c>
+      <c r="G6">
+        <v>21.3</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G7">
+        <v>21.3</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <v>29.5</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>58</v>
+      </c>
+      <c r="J8">
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>18.8</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>27.5</v>
+      </c>
+      <c r="F11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>0.152</v>
+      </c>
+      <c r="G13">
+        <v>22.4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>47.5</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <v>26.5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>24.5</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>49</v>
+      </c>
+      <c r="J15">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0.122</v>
+      </c>
+      <c r="G16">
+        <v>18.8</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6458,8 +9600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
   <definedNames>
     <definedName name="_39data1" localSheetId="2">Sheet3!$A$1:$J$39</definedName>
     <definedName name="data" localSheetId="8">Sheet9!$A$1:$M$64</definedName>
-    <definedName name="data_1" localSheetId="0">Sheet1!$A$1:$H$32</definedName>
     <definedName name="tempdata" localSheetId="10">Sheet11!$A$1:$K$16</definedName>
     <definedName name="tempdata_1" localSheetId="10">Sheet11!$L$1:$R$16</definedName>
     <definedName name="test" localSheetId="1">Sheet2!$A$1:$L$6</definedName>
@@ -51,22 +50,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="data" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr sourceFile="F:\documents\thesis\finite element\data.txt" tab="0" space="1" consecutive="1">
-      <textFields count="9">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" name="data1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" name="data1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\documents\thesis\finite element\data.txt" space="1" consecutive="1">
       <textFields count="13">
         <textField/>
@@ -85,7 +69,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="tempdata" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" name="tempdata" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\documents\Python\Adaboost\tempdata.txt" space="1" consecutive="1">
       <textFields count="12">
         <textField/>
@@ -103,7 +87,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="tempdata1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="4" name="tempdata1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\documents\Python\Adaboost\tempdata.txt" space="1" consecutive="1">
       <textFields count="8">
         <textField/>
@@ -117,7 +101,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="test" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="5" name="test" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="936" sourceFile="F:\documents\thesis\finite element\test.txt" space="1" consecutive="1">
       <textFields count="13">
         <textField/>
@@ -360,11 +344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173250816"/>
-        <c:axId val="180422144"/>
+        <c:axId val="166108544"/>
+        <c:axId val="172817024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173250816"/>
+        <c:axId val="166108544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,12 +357,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180422144"/>
+        <c:crossAx val="172817024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180422144"/>
+        <c:axId val="172817024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173250816"/>
+        <c:crossAx val="166108544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -572,11 +556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180446336"/>
-        <c:axId val="180447872"/>
+        <c:axId val="172771584"/>
+        <c:axId val="172793856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180446336"/>
+        <c:axId val="172771584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,12 +569,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180447872"/>
+        <c:crossAx val="172793856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180447872"/>
+        <c:axId val="172793856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180446336"/>
+        <c:crossAx val="172771584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,11 +768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180467968"/>
-        <c:axId val="181669888"/>
+        <c:axId val="37555584"/>
+        <c:axId val="37581952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180467968"/>
+        <c:axId val="37555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,12 +781,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181669888"/>
+        <c:crossAx val="37581952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181669888"/>
+        <c:axId val="37581952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180467968"/>
+        <c:crossAx val="37555584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -996,11 +980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181677440"/>
-        <c:axId val="181687424"/>
+        <c:axId val="37597952"/>
+        <c:axId val="37599488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181677440"/>
+        <c:axId val="37597952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,12 +993,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181687424"/>
+        <c:crossAx val="37599488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181687424"/>
+        <c:axId val="37599488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181677440"/>
+        <c:crossAx val="37597952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1208,11 +1192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181712000"/>
-        <c:axId val="181713536"/>
+        <c:axId val="37693312"/>
+        <c:axId val="37694848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181712000"/>
+        <c:axId val="37693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,12 +1205,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181713536"/>
+        <c:crossAx val="37694848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181713536"/>
+        <c:axId val="37694848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181712000"/>
+        <c:crossAx val="37693312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1430,11 +1414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181602176"/>
-        <c:axId val="181603712"/>
+        <c:axId val="37702656"/>
+        <c:axId val="37720832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181602176"/>
+        <c:axId val="37702656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,12 +1427,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181603712"/>
+        <c:crossAx val="37720832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181603712"/>
+        <c:axId val="37720832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181602176"/>
+        <c:crossAx val="37702656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1642,11 +1626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181648384"/>
-        <c:axId val="181650176"/>
+        <c:axId val="37745024"/>
+        <c:axId val="37746560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181648384"/>
+        <c:axId val="37745024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,12 +1639,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181650176"/>
+        <c:crossAx val="37746560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181650176"/>
+        <c:axId val="37746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181648384"/>
+        <c:crossAx val="37745024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1908,27 +1892,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="39data1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="39data1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempdata_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempdata_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempdata" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tempdata" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2218,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2240,319 +2220,283 @@
     <col min="15" max="16" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>22.4</v>
+        <v>20.41</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>16</v>
+      </c>
+      <c r="E1">
+        <v>45.7</v>
+      </c>
+      <c r="F1">
+        <v>0.2</v>
+      </c>
+      <c r="G1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>18.84</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>7.62</v>
+      </c>
+      <c r="F2">
+        <v>0.45</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>21.43</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="B4">
+        <v>11.71</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
         <v>35</v>
       </c>
-      <c r="D1">
-        <v>45</v>
-      </c>
-      <c r="E1">
-        <v>10</v>
-      </c>
-      <c r="F1">
-        <v>0.4</v>
-      </c>
-      <c r="G1">
-        <v>0.9</v>
-      </c>
-      <c r="H1">
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>0.11</v>
+      </c>
+      <c r="G4">
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-      <c r="G2">
-        <v>0.83</v>
-      </c>
-      <c r="H2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>18.84</v>
+      </c>
+      <c r="B5">
+        <v>14.36</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>30.5</v>
+      </c>
+      <c r="F5">
+        <v>0.45</v>
+      </c>
+      <c r="G5">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>0.25</v>
-      </c>
-      <c r="G3">
-        <v>0.79</v>
-      </c>
-      <c r="H3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>21.51</v>
+      </c>
+      <c r="B6">
+        <v>6.94</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>76.81</v>
+      </c>
+      <c r="F6">
+        <v>0.38</v>
+      </c>
+      <c r="G6">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>45</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.67</v>
-      </c>
-      <c r="H4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>11.97</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>0.45</v>
+      </c>
+      <c r="G7">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>0.35</v>
-      </c>
-      <c r="G5">
-        <v>1.45</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
-        <v>1.58</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>24.5</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>0.35</v>
-      </c>
-      <c r="G7">
-        <v>1.37</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>18</v>
       </c>
       <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>30.15</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.12</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
         <v>0.3</v>
       </c>
-      <c r="G8">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>22.4</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>35</v>
       </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-      <c r="E9">
-        <v>420</v>
-      </c>
-      <c r="F9">
-        <v>0.25</v>
-      </c>
-      <c r="G9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H9">
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>407</v>
-      </c>
-      <c r="F10">
-        <v>0.25</v>
-      </c>
-      <c r="G10">
-        <v>1.44</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11">
-        <v>359</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.27</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>35</v>
       </c>
       <c r="D12">
-        <v>37.799999999999997</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="F12">
         <v>0.25</v>
       </c>
       <c r="G12">
-        <v>1.24</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>27</v>
       </c>
@@ -2563,7 +2507,7 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>42.6</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>301</v>
@@ -2572,504 +2516,398 @@
         <v>0.25</v>
       </c>
       <c r="G13">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>27</v>
+        <v>31.3</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>42.2</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>289</v>
+        <v>200.5</v>
       </c>
       <c r="F14">
         <v>0.25</v>
       </c>
       <c r="G14">
-        <v>1.3</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>27.3</v>
+        <v>31.3</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>110</v>
+        <v>366</v>
       </c>
       <c r="F15">
         <v>0.25</v>
       </c>
       <c r="G15">
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>27.3</v>
+        <v>31.3</v>
       </c>
       <c r="B16">
-        <v>31.5</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C16">
-        <v>29.7</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="F16">
         <v>0.25</v>
       </c>
       <c r="G16">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>27.3</v>
+        <v>20.41</v>
       </c>
       <c r="B17">
-        <v>16.8</v>
+        <v>24.9</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>90.5</v>
+        <v>10.67</v>
       </c>
       <c r="F17">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="G17">
-        <v>1.252</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>27.3</v>
+        <v>18.84</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>15.32</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>92</v>
+        <v>10.67</v>
       </c>
       <c r="F18">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="G18">
-        <v>1.246</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>27.3</v>
+        <v>22.4</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>511</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>0.25</v>
       </c>
       <c r="G19">
-        <v>1.47</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>27.3</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>0.35</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
         <v>40</v>
       </c>
-      <c r="E20">
-        <v>470</v>
-      </c>
-      <c r="F20">
-        <v>0.25</v>
-      </c>
-      <c r="G20">
-        <v>1.4339999999999999</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>46</v>
-      </c>
-      <c r="C21">
-        <v>35</v>
-      </c>
-      <c r="D21">
-        <v>47</v>
-      </c>
-      <c r="E21">
-        <v>443</v>
-      </c>
-      <c r="F21">
-        <v>0.25</v>
-      </c>
-      <c r="G21">
-        <v>1.28</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
       <c r="D22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="F22">
         <v>0.25</v>
       </c>
       <c r="G22">
-        <v>1.37</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>432</v>
+        <v>359</v>
       </c>
       <c r="F23">
         <v>0.25</v>
       </c>
       <c r="G23">
-        <v>1.23</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>150</v>
+        <v>37.5</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="F24">
         <v>0.25</v>
       </c>
       <c r="G24">
-        <v>1.2</v>
-      </c>
-      <c r="H24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="F25">
         <v>0.25</v>
       </c>
       <c r="G25">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="F26">
         <v>0.25</v>
       </c>
       <c r="G26">
-        <v>0.78</v>
-      </c>
-      <c r="H26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>22.4</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>31.5</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>29.7</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>0.25</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>21.4</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>16.8</v>
       </c>
       <c r="C28">
-        <v>30.34</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>90.5</v>
       </c>
       <c r="F28">
         <v>0.25</v>
       </c>
       <c r="G28">
-        <v>1.7</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>0.25</v>
       </c>
       <c r="G29">
-        <v>1.02</v>
-      </c>
-      <c r="H29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>511</v>
       </c>
       <c r="F30">
         <v>0.25</v>
       </c>
       <c r="G30">
-        <v>0.89</v>
-      </c>
-      <c r="H30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>35</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>0.25</v>
-      </c>
-      <c r="G31">
-        <v>1.46</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <v>45</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>0.25</v>
-      </c>
-      <c r="G32">
-        <v>0.8</v>
-      </c>
-      <c r="H32">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6184,10 +6022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6202,59 +6040,53 @@
     <col min="9" max="12" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>470</v>
       </c>
       <c r="F1">
         <v>0.25</v>
       </c>
       <c r="G1">
-        <v>1.44</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>31.3</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>200.5</v>
+        <v>443</v>
       </c>
       <c r="F2">
         <v>0.25</v>
       </c>
       <c r="G2">
-        <v>1.2</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20</v>
       </c>
@@ -6274,87 +6106,144 @@
         <v>0.25</v>
       </c>
       <c r="G3">
-        <v>0.96</v>
-      </c>
-      <c r="H3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>27</v>
+        <v>19.63</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>11.97</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>47.1</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>292</v>
+        <v>21.19</v>
       </c>
       <c r="F4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>21.82</v>
+      </c>
+      <c r="B5">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>12.8</v>
+      </c>
+      <c r="F5">
+        <v>0.49</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>55</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>36</v>
       </c>
-      <c r="D5">
-        <v>44.5</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>299</v>
-      </c>
-      <c r="F5">
-        <v>0.25</v>
-      </c>
-      <c r="G5">
-        <v>1.55</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>27.3</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>480</v>
       </c>
       <c r="F6">
         <v>0.25</v>
       </c>
       <c r="G6">
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>27.3</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>480</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>393</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>330</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -6368,13 +6257,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:Q39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
